--- a/UpperLevel/GMHO_Upper_Defs.xlsx
+++ b/UpperLevel/GMHO_Upper_Defs.xlsx
@@ -477,72 +477,72 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BFO entity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has process part'</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'realises'</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Curator note</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BFO entity</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has process part'</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'realises'</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Informal label for repository</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Informal label for repository</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Curator note</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -572,7 +572,7 @@
           <t>communication process attribute</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -608,21 +608,21 @@
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="T3" s="2" t="n"/>
       <c r="U3" s="2" t="n"/>
     </row>
@@ -647,7 +647,7 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -674,7 +674,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -701,7 +701,7 @@
           <t>extended organism</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -728,17 +728,17 @@
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>target population</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>This entity represents any group consisting of two or more individuals. It could range for example from small groups, neighbourhoods, and organisations to entire national populations.</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -765,7 +765,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -797,7 +797,7 @@
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -833,20 +833,20 @@
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050315</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P10" s="2" t="n"/>
       <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050315</t>
+        </is>
+      </c>
       <c r="T10" s="2" t="n"/>
       <c r="U10" s="2" t="n"/>
     </row>
@@ -871,7 +871,7 @@
           <t>planned process</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -908,21 +908,21 @@
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P12" s="2" t="n"/>
       <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="T12" s="2" t="n"/>
       <c r="U12" s="2" t="n"/>
     </row>
@@ -952,13 +952,13 @@
           <t>planned process</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>This class intends to represent the actual delivery of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned delivery of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned delivery, researchers could annotate both the class "intervention delivery" and "mental health intervention scenario plan".
 The definition of "intervention delivery" states that it is "a planned process by which intervention content is delivered," which refers to the actual execution of the intervention. This phrasing reflects that the intervention was designed and planned in advance before being implemented, thereby making it a "planned process".</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -998,23 +998,23 @@
       </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Intervention dose can capture the intensity of any intervention, including social, physical, psychological and pharmacological interventions.
 Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose. This class intends to represent the actual dose delivered as part of an intervention, whereas the class "mental health intervention scenario plan" refers to the planned intervention, including the planned dose of an intervention. Distinguishing between these two classes allows for the assessment of intervention fidelity. To capture planned dose, researchers could annotate both the class "intervention dose" and "mental health intervention scenario plan".
 </t>
         </is>
       </c>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="n"/>
       <c r="T14" s="2" t="n"/>
       <c r="U14" s="2" t="n"/>
@@ -1047,7 +1047,9 @@
       <c r="I15" s="2" t="n"/>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">For a construct to be a mechanism of action, it must be causally active in bringing about the intervention’s effect on its outcome. However, interventions are typically designed based on hypothesised mechanisms of action, which may or may not hold true depending on factors such as behaviour type, population, and setting. 
 The ontology provides a structured framework for organising mechanisms of action but does not replace the need for empirical validation. The ontology does not specify the level of evidence required to confirm that a hypothesised mechanism has been realised. In other words, the ontology itself does not make causal inferences about specific mechanisms. 
@@ -1056,16 +1058,14 @@
 </t>
         </is>
       </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="n"/>
       <c r="T15" s="2" t="n"/>
       <c r="U15" s="2" t="n"/>
@@ -1103,14 +1103,14 @@
       <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="n"/>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P16" s="2" t="n"/>
       <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R16" s="2" t="n"/>
       <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="n"/>
       <c r="U16" s="2" t="n"/>
@@ -1136,7 +1136,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1163,12 +1163,12 @@
           <t>human population</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>The definition of intervention population (A human population who are exposed to an intervention) does not imply an explicit assignment to an intervention arm. While some interventions will have study designs in which researchers explicitly assign participants to intervention and control groups, this is not the case for all interventions (e.g., policy changes or public health campaigns).</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1204,23 +1204,23 @@
       <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Temporal organisation includes different temporal dimensions, such as timing, frequency, duration and the sequence of activities.
 Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities "intervention dose" and "intervention schedule of delivery". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, "intervention dose" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose.
 </t>
         </is>
       </c>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P19" s="2" t="n"/>
       <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="n"/>
       <c r="T19" s="2" t="n"/>
       <c r="U19" s="2" t="n"/>
@@ -1256,21 +1256,21 @@
       <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:005000
-</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:005000
+</t>
+        </is>
+      </c>
       <c r="T20" s="2" t="n"/>
       <c r="U20" s="2" t="n"/>
     </row>
@@ -1299,32 +1299,32 @@
           <t>role</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intervention provider
-</t>
-        </is>
-      </c>
+      <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="n"/>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intervention provider
+</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The entity “intervention source” has been defined to include a person, population or organisation, as these sources can be legally accountable for an intervention. A computer program or machine cannot be held accountable in the same way. Therefore, the organisation or people that provide the computer program or machine would be considered the intervention source, where relevant. When an intervention is delivered via a computer program (e.g., an app), this can be captured in the ontology through the relevant subclasses of "intervention mode of delivery".
 </t>
         </is>
       </c>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P21" s="2" t="n"/>
       <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R21" s="2" t="n"/>
       <c r="S21" s="2" t="n"/>
       <c r="T21" s="2" t="n"/>
       <c r="U21" s="2" t="n"/>
@@ -1350,7 +1350,7 @@
           <t>communication style</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>An intervention can include various different styles of delivery for different parts of the intervention.
 The definition of "intervention style of delivery" is based on two other entities, namely "communication style" and "intervention content communication process". Their definitions are presented below.
@@ -1358,7 +1358,7 @@
 intervention content communication process (BCIO:044001): A communication that transmits the content of an intervention Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1395,14 +1395,14 @@
       <c r="L23" s="2" t="n"/>
       <c r="M23" s="2" t="n"/>
       <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="n"/>
       <c r="T23" s="2" t="n"/>
       <c r="U23" s="2" t="n"/>
@@ -1437,21 +1437,21 @@
       <c r="K24" s="2" t="n"/>
       <c r="L24" s="2" t="n"/>
       <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCIO:047000
-</t>
-        </is>
-      </c>
-      <c r="O24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="n"/>
+      <c r="R24" s="2" t="n"/>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BCIO:047000
+</t>
+        </is>
+      </c>
       <c r="T24" s="2" t="n"/>
       <c r="U24" s="2" t="n"/>
     </row>
@@ -1484,22 +1484,22 @@
       <c r="I25" s="2" t="n"/>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. 
 </t>
         </is>
       </c>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P25" s="2" t="n"/>
       <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="n"/>
       <c r="U25" s="2" t="n"/>
@@ -1540,14 +1540,14 @@
       <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="n"/>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P26" s="2" t="n"/>
       <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R26" s="2" t="n"/>
       <c r="S26" s="2" t="n"/>
       <c r="T26" s="2" t="n"/>
       <c r="U26" s="2" t="n"/>
@@ -1580,25 +1580,25 @@
       <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The "mental health intervention scenario" entity captures a "mental health intervention" within a specific context, level of engagement and outcomes. Mental health interventions (represented as "mental health intervention") could be delivered in different contexts and/or have different outcomes at different times. For example, we could deliver the same intervention ("mental health intervention") two years after its previous delivery or in a different context ("mental health intervention scenario"), and this could lead to different outcomes. </t>
         </is>
       </c>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
           <t>planned</t>
         </is>
       </c>
       <c r="Q27" s="2" t="n"/>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="n"/>
       <c r="T27" s="2" t="n"/>
       <c r="U27" s="2" t="n"/>
@@ -1631,26 +1631,26 @@
       <c r="I28" s="2" t="n"/>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
-        </is>
-      </c>
+      <c r="L28" s="2" t="n"/>
       <c r="M28" s="2" t="n"/>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:028000</t>
-        </is>
-      </c>
-      <c r="O28" s="2" t="n"/>
+          <t>This entity is intended to represent the planned content or delivery of an intervention, whereas the entity "mental health intervention scenario" refers to the intervention as it was actually implemented. Distinguishing between these two entities allows for the assessment of intervention fidelity.</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P28" s="2" t="n"/>
       <c r="Q28" s="2" t="n"/>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="n"/>
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:028000</t>
+        </is>
+      </c>
       <c r="T28" s="2" t="n"/>
       <c r="U28" s="2" t="n"/>
     </row>
@@ -1685,14 +1685,14 @@
       <c r="L29" s="3" t="n"/>
       <c r="M29" s="3" t="n"/>
       <c r="N29" s="3" t="n"/>
-      <c r="O29" s="3" t="n"/>
+      <c r="O29" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="P29" s="3" t="n"/>
       <c r="Q29" s="3" t="n"/>
-      <c r="R29" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="R29" s="3" t="n"/>
       <c r="S29" s="3" t="n"/>
       <c r="T29" s="3" t="n"/>
       <c r="U29" s="3" t="n"/>
@@ -1729,21 +1729,21 @@
       <c r="I30" s="2" t="n"/>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>Engagement can involve cognitive, emotional and behavioural engagement with an intervention.</t>
         </is>
       </c>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P30" s="2" t="n"/>
       <c r="Q30" s="2" t="n"/>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R30" s="2" t="n"/>
       <c r="S30" s="2" t="n"/>
       <c r="T30" s="2" t="n"/>
       <c r="U30" s="2" t="n"/>
@@ -1774,12 +1774,12 @@
           <t>sum of multiple experienced events</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>A person's history includes the sum of their experiences, which can include experiences relating to their cultural, social and economic context.</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1811,7 +1811,7 @@
           <t>experienced event</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1835,10 +1835,10 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>realizable</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
+          <t>realizable entity</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1865,7 +1865,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1899,21 +1899,21 @@
       <c r="I35" s="2" t="n"/>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="inlineStr">
         <is>
           <t>is an aggregate of personal history; experiences can be captured as 'personal history part'.</t>
         </is>
       </c>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
+      <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="n"/>
       <c r="T35" s="2" t="n"/>
       <c r="U35" s="2" t="n"/>
@@ -1939,7 +1939,7 @@
           <t>occurrent</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1961,32 +1961,16 @@
           <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -2018,20 +2002,20 @@
       <c r="K38" s="4" t="n"/>
       <c r="L38" s="4" t="n"/>
       <c r="M38" s="4" t="n"/>
-      <c r="N38" s="4" t="inlineStr">
-        <is>
-          <t>SEPIO:0000125</t>
-        </is>
-      </c>
-      <c r="O38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
       <c r="P38" s="4" t="n"/>
       <c r="Q38" s="4" t="n"/>
-      <c r="R38" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="S38" s="4" t="n"/>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="inlineStr">
+        <is>
+          <t>SEPIO:0000125</t>
+        </is>
+      </c>
       <c r="T38" s="4" t="n"/>
       <c r="U38" s="4" t="n"/>
     </row>
@@ -2053,10 +2037,10 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>realizable</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
+          <t>realizable entity</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
